--- a/Excel Files/Files.xlsx
+++ b/Excel Files/Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="6920"/>
+    <workbookView windowWidth="17930" windowHeight="6920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login&amp;Usercreation" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="222">
   <si>
     <t>Login page</t>
   </si>
@@ -44,43 +44,43 @@
     <t>First name</t>
   </si>
   <si>
-    <t>Sanjay</t>
-  </si>
-  <si>
-    <t>Asharani</t>
-  </si>
-  <si>
-    <t>Karthik</t>
-  </si>
-  <si>
-    <t>hemavathy</t>
-  </si>
-  <si>
-    <t>Jeeva</t>
-  </si>
-  <si>
-    <t>Maaran</t>
+    <t>Dhoni</t>
+  </si>
+  <si>
+    <t>virat</t>
+  </si>
+  <si>
+    <t>Ravindra</t>
+  </si>
+  <si>
+    <t>Prithvi</t>
+  </si>
+  <si>
+    <t>Kuldeep</t>
+  </si>
+  <si>
+    <t>Sindhu</t>
   </si>
   <si>
     <t>Last name</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>Balin</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>kohli</t>
+  </si>
+  <si>
+    <t>Jadeja</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>Batminton</t>
   </si>
   <si>
     <t>Gender</t>
@@ -95,22 +95,22 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>emarion.shravan@foundtoo.com</t>
-  </si>
-  <si>
-    <t>bronxton.zakery@foundtoo.com</t>
-  </si>
-  <si>
-    <t>davien.stas@foundtoo.com</t>
-  </si>
-  <si>
-    <t>kairav.kadyn@foundtoo.com</t>
-  </si>
-  <si>
-    <t>nelly.wrigley@foundtoo.com</t>
-  </si>
-  <si>
-    <t>maxemiliano.korbyn@foundtoo.com</t>
+    <t>whalen.kieon@foundtoo.com</t>
+  </si>
+  <si>
+    <t>jaylin.chengyu@foundtoo.com</t>
+  </si>
+  <si>
+    <t>legolas.cordero@foundtoo.com</t>
+  </si>
+  <si>
+    <t>camari.lisandro@foundtoo.com</t>
+  </si>
+  <si>
+    <t>jaidin.zorawar@foundtoo.com</t>
+  </si>
+  <si>
+    <t>trinity.colt@foundtoo.com</t>
   </si>
   <si>
     <t>Phone number</t>
@@ -143,342 +143,375 @@
     <t>Profile picture</t>
   </si>
   <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image3.jpg</t>
+    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image23.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image24.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image20.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image22.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image29.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image21.jpg</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Alternate Contact Number</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>MSD</t>
+  </si>
+  <si>
+    <t>DPT</t>
+  </si>
+  <si>
+    <t>RDH</t>
+  </si>
+  <si>
+    <t>DPM</t>
+  </si>
+  <si>
+    <t>Govt.Id Type</t>
+  </si>
+  <si>
+    <t>Pan card</t>
+  </si>
+  <si>
+    <t>Govt.Id Number</t>
+  </si>
+  <si>
+    <t>Upload Id proof</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>no 278,LIG 2,TNHB colony</t>
+  </si>
+  <si>
+    <t>no1, Monday market, nagercoil</t>
+  </si>
+  <si>
+    <t>no1, Abi flat, S.Kulathur</t>
+  </si>
+  <si>
+    <t>no 32, Miss abragan street, M.G.R nagar</t>
+  </si>
+  <si>
+    <t>no 1, noth new street, kalakadu</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>velachery, Chennai-42</t>
+  </si>
+  <si>
+    <t>Kanyakumary</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Tirunelveli</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>East Delhi</t>
+  </si>
+  <si>
+    <t>Pin code</t>
+  </si>
+  <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>Gandhi Nagar</t>
+  </si>
+  <si>
+    <t>About Yourself</t>
+  </si>
+  <si>
+    <t>My name is Dhoni, and I'm an adaptable and experienced hospital administrator. 
+I have 10 years of experience managing hospital operations to ensure that patients and their families receive comprehensive care and support. 
+I value helping others and creating an environment that fosters positive change.</t>
+  </si>
+  <si>
+    <t>My name is Kohli, and I'm an adaptable and experienced hospital administrator. 
+I have 10 years of experience managing hospital operations to ensure that patients and their families receive comprehensive care and support. 
+I value helping others and creating an environment that fosters positive change.</t>
+  </si>
+  <si>
+    <t>My name is Ravindra,32 years old. 
+I was graduated from the Wannan Medical College in Anhui province, my major is clinical medicine. 
+I live in Shanghai from 2007, it’s almost 7years old. 
+I have ever worked in the community health service centre in Chongming and Yangpu district. And now, I’m working in Juquan community, Baoshan district. 
+As a doctor, my motto is “Doing now what patients need”. I spend most of my time to my patients, to help them get out of the pain of disease. 
+However, I’ve never forgot to improve myself with professional medical knowledge. I’ve passed the test of General Intermediate in 2012. 
+And I know that I need to go on study in the future. So today I’m here, to apply the opportunity to attend the medical training in the United States.
+Hope I have this honor.</t>
+  </si>
+  <si>
+    <t>I’m just finishing up nursing school. I’ve got a 3.99 GPA and I received an Outstanding Undergraduate Nursing Student Award for leadership and caring. As a precept nurse at Newark General Hospital, I received frequent commendations from the preceptor for efficiency. I also maintained 95% positive evaluations for patient education. I supervised bedsore prevention on my ward, for which my patients were in the top 98%.</t>
+  </si>
+  <si>
+    <t>In five years, I’d like to be the most valued nurse on your team. I plan to take full advantage of the continuing education reimbursement you offer to expand my skills beyond their current level. I’m skilled in patient education and EHR, which I know you value. There are so many new skills I’d like to gain, including budgeting and training others. I think Cliffton Bluffs Hospital is the perfect place to grow into a better nurse.</t>
+  </si>
+  <si>
+    <t>My name is Sindhu,32 years old. 
+I was graduated from the Wannan Medical College in Anhui province, my major is clinical medicine. 
+I live in Shanghai from 2007, it’s almost 7years old. 
+I have ever worked in the community health service centre in Chongming and Yangpu district. And now, I’m working in Juquan community, Baoshan district. 
+As a doctor, my motto is “Doing now what patients need”. I spend most of my time to my patients, to help them get out of the pain of disease. 
+However, I’ve never forgot to improve myself with professional medical knowledge. I’ve passed the test of General Intermediate in 2012. 
+And I know that I need to go on study in the future. So today I’m here, to apply the opportunity to attend the medical training in the United States.
+Hope I have this honor.</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Dental cleaning</t>
+  </si>
+  <si>
+    <t>Dermatologist</t>
+  </si>
+  <si>
+    <t>Acupuncturist</t>
+  </si>
+  <si>
+    <t>Registration Year</t>
+  </si>
+  <si>
+    <t>Registration Number</t>
+  </si>
+  <si>
+    <t>Registration Copy</t>
+  </si>
+  <si>
+    <t>Clinic Name</t>
+  </si>
+  <si>
+    <t>Karthik Clinic</t>
+  </si>
+  <si>
+    <t>Hema Clinic</t>
+  </si>
+  <si>
+    <t>Maaran Clinic</t>
+  </si>
+  <si>
+    <t>Clinic Contact Number</t>
+  </si>
+  <si>
+    <t>Clinic Email Address</t>
+  </si>
+  <si>
+    <t>karthik@mail.com</t>
+  </si>
+  <si>
+    <t>hema@mail.com</t>
+  </si>
+  <si>
+    <t>maaran@mail.com</t>
+  </si>
+  <si>
+    <t>Clinic Address</t>
+  </si>
+  <si>
+    <t>Special Skills</t>
+  </si>
+  <si>
+    <t>Patient care</t>
+  </si>
+  <si>
+    <t>Pharmacy name</t>
+  </si>
+  <si>
+    <t>Jeeva pharmacy</t>
+  </si>
+  <si>
+    <t>Pharmacy Contact Number</t>
+  </si>
+  <si>
+    <t>Pharmacy Email address</t>
+  </si>
+  <si>
+    <t>jeeva@mail.com</t>
+  </si>
+  <si>
+    <t>Pharmacy registration no</t>
+  </si>
+  <si>
+    <t>Pharmacy GST no</t>
+  </si>
+  <si>
+    <t>6785ERT6756D</t>
+  </si>
+  <si>
+    <t>Pan card number</t>
+  </si>
+  <si>
+    <t>85ER087656D</t>
+  </si>
+  <si>
+    <t>Pharmacy Address</t>
+  </si>
+  <si>
+    <t>Enquiry page</t>
+  </si>
+  <si>
+    <t>Veteran First Name</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Assigned Doctor Names</t>
+  </si>
+  <si>
+    <t>Karthik N</t>
+  </si>
+  <si>
+    <t>Veteran Last Name</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Veteran Gender</t>
+  </si>
+  <si>
+    <t>Veteran Email address</t>
+  </si>
+  <si>
+    <t>zandyr.ever@foundtoo.com</t>
+  </si>
+  <si>
+    <t>Veteran Contact Number</t>
+  </si>
+  <si>
+    <t>Veteran Address Line 1</t>
+  </si>
+  <si>
+    <t>278, Anna nagar, mogappiar east</t>
+  </si>
+  <si>
+    <t>Veteran Address Line 2</t>
+  </si>
+  <si>
+    <t>Veteran Country</t>
+  </si>
+  <si>
+    <t>Veteran State/Region</t>
+  </si>
+  <si>
+    <t>Veteran City</t>
+  </si>
+  <si>
+    <t>Veteran Pin code</t>
+  </si>
+  <si>
+    <t>Veteran Territory</t>
+  </si>
+  <si>
+    <t>Family Member First Name</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Family Member Last Name</t>
+  </si>
+  <si>
+    <t>Curran</t>
+  </si>
+  <si>
+    <t>Family Member Gender</t>
+  </si>
+  <si>
+    <t>Family Member Email address</t>
+  </si>
+  <si>
+    <t>kycen.jexiel@foundtoo.com</t>
+  </si>
+  <si>
+    <t>Family Member Current Address</t>
+  </si>
+  <si>
+    <t>278, Anna nagar, mogappiar east, Chennai -02</t>
+  </si>
+  <si>
+    <t>Family Member Contact Number</t>
+  </si>
+  <si>
+    <t>Family Member Relationship</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Family Member Notes</t>
+  </si>
+  <si>
+    <t>Accept the enquiry</t>
+  </si>
+  <si>
+    <t>Veteran onboarding form</t>
+  </si>
+  <si>
+    <t>Veteran Profile photo</t>
   </si>
   <si>
     <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image1.jpg</t>
   </si>
   <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image6.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image7.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image5.jpg</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Alternate Contact Number</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>MSD</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>RDH</t>
-  </si>
-  <si>
-    <t>Govt.Id Type</t>
-  </si>
-  <si>
-    <t>Pan card</t>
-  </si>
-  <si>
-    <t>Govt.Id Number</t>
-  </si>
-  <si>
-    <t>Upload Id proof</t>
-  </si>
-  <si>
-    <t>Address Line 1</t>
-  </si>
-  <si>
-    <t>no 278,LIG 2,TNHB colony</t>
-  </si>
-  <si>
-    <t>no1, Monday market, nagercoil</t>
-  </si>
-  <si>
-    <t>no1, Abi flat, S.Kulathur</t>
-  </si>
-  <si>
-    <t>no 32, Miss abragan street, M.G.R nagar</t>
-  </si>
-  <si>
-    <t>no 1, noth new street, kalakadu</t>
-  </si>
-  <si>
-    <t>Address Line 2</t>
-  </si>
-  <si>
-    <t>velachery, Chennai-42</t>
-  </si>
-  <si>
-    <t>Kanyakumary</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Tirunelveli</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>East Delhi</t>
-  </si>
-  <si>
-    <t>Pin code</t>
-  </si>
-  <si>
-    <t>Territory</t>
-  </si>
-  <si>
-    <t>Gandhi Nagar</t>
-  </si>
-  <si>
-    <t>About Yourself</t>
-  </si>
-  <si>
-    <t>This is Sanjay.G</t>
-  </si>
-  <si>
-    <t>This is Asharani.P</t>
-  </si>
-  <si>
-    <t>This is Karthik.N</t>
-  </si>
-  <si>
-    <t>This is Hemavathy.K</t>
-  </si>
-  <si>
-    <t>This is Jeevabalin.R</t>
-  </si>
-  <si>
-    <t>This is Maaran V</t>
-  </si>
-  <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Urological Surgeon</t>
-  </si>
-  <si>
-    <t>Psychologist</t>
-  </si>
-  <si>
-    <t>Registration Year</t>
-  </si>
-  <si>
-    <t>Registration Number</t>
-  </si>
-  <si>
-    <t>Registration Copy</t>
-  </si>
-  <si>
-    <t>Clinic Name</t>
-  </si>
-  <si>
-    <t>Karthik Clinic</t>
-  </si>
-  <si>
-    <t>Hema Clinic</t>
-  </si>
-  <si>
-    <t>Maaran Clinic</t>
-  </si>
-  <si>
-    <t>Clinic Contact Number</t>
-  </si>
-  <si>
-    <t>Clinic Email Address</t>
-  </si>
-  <si>
-    <t>karthik@mail.com</t>
-  </si>
-  <si>
-    <t>hema@mail.com</t>
-  </si>
-  <si>
-    <t>maaran@mail.com</t>
-  </si>
-  <si>
-    <t>Clinic Address</t>
-  </si>
-  <si>
-    <t>Special Skills</t>
-  </si>
-  <si>
-    <t>Patient Care</t>
-  </si>
-  <si>
-    <t>Pharmacy name</t>
-  </si>
-  <si>
-    <t>Jeeva pharmacy</t>
-  </si>
-  <si>
-    <t>Pharmacy Contact Number</t>
-  </si>
-  <si>
-    <t>Pharmacy Email address</t>
-  </si>
-  <si>
-    <t>jeeva@mail.com</t>
-  </si>
-  <si>
-    <t>Pharmacy registration no</t>
-  </si>
-  <si>
-    <t>Pharmacy GST no</t>
-  </si>
-  <si>
-    <t>6785ERT6756D</t>
-  </si>
-  <si>
-    <t>Pan card number</t>
-  </si>
-  <si>
-    <t>Pharmacy Address</t>
-  </si>
-  <si>
-    <t>Enquiry page</t>
-  </si>
-  <si>
-    <t>Veteran First Name</t>
-  </si>
-  <si>
-    <t>Vinoth</t>
-  </si>
-  <si>
-    <t>Assigned Doctor Names</t>
-  </si>
-  <si>
-    <t>Karthik N</t>
-  </si>
-  <si>
-    <t>Veteran Last Name</t>
-  </si>
-  <si>
-    <t>Gowda</t>
-  </si>
-  <si>
-    <t>Veteran Gender</t>
-  </si>
-  <si>
-    <t>Veteran Email address</t>
-  </si>
-  <si>
-    <t>pinarayivijayan@veteran.com</t>
-  </si>
-  <si>
-    <t>Veteran Contact Number</t>
-  </si>
-  <si>
-    <t>Veteran Address Line 1</t>
-  </si>
-  <si>
-    <t>no 1, south street, perungudi</t>
-  </si>
-  <si>
-    <t>Veteran Address Line 2</t>
-  </si>
-  <si>
-    <t>Veteran Country</t>
-  </si>
-  <si>
-    <t>Veteran State/Region</t>
-  </si>
-  <si>
-    <t>Veteran City</t>
-  </si>
-  <si>
-    <t>Veteran Pin code</t>
-  </si>
-  <si>
-    <t>Veteran Territory</t>
-  </si>
-  <si>
-    <t>Family Member First Name</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>Family Member Last Name</t>
-  </si>
-  <si>
-    <t>Patel</t>
-  </si>
-  <si>
-    <t>Family Member Gender</t>
-  </si>
-  <si>
-    <t>Family Member Email address</t>
-  </si>
-  <si>
-    <t>antony@caregiver.com</t>
-  </si>
-  <si>
-    <t>Family Member Current Address</t>
-  </si>
-  <si>
-    <t>no 104, vv street, Chennai</t>
-  </si>
-  <si>
-    <t>Family Member Contact Number</t>
-  </si>
-  <si>
-    <t>Family Member Relationship</t>
-  </si>
-  <si>
-    <t>Brother</t>
-  </si>
-  <si>
-    <t>Family Member Notes</t>
-  </si>
-  <si>
-    <t>Accept the enquiry</t>
-  </si>
-  <si>
-    <t>Veteran onboarding form</t>
-  </si>
-  <si>
-    <t>Veteran Profile photo</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image11.jpeg</t>
-  </si>
-  <si>
     <t>Family member Profile photo</t>
   </si>
   <si>
+    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image2.jpg</t>
+  </si>
+  <si>
     <t>Respective Police Station</t>
   </si>
   <si>
@@ -554,7 +587,7 @@
     <t>Comorbidities</t>
   </si>
   <si>
-    <t>Blood Pressure</t>
+    <t>Thyroid disorders</t>
   </si>
   <si>
     <t>From Duration</t>
@@ -566,7 +599,7 @@
     <t>History of Comorbidities</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>On 2016, Thyroid disorders disease, so my blood pressure also increased</t>
   </si>
   <si>
     <t>Any Hospitalization in last 5 years? When?</t>
@@ -581,6 +614,9 @@
     <t>Any Hospitalization in last 5 years? History</t>
   </si>
   <si>
+    <t>on 2018, i was hospitalized on chennai govt hospital.</t>
+  </si>
+  <si>
     <t>Any Heart disease? When?</t>
   </si>
   <si>
@@ -590,6 +626,9 @@
     <t>Any Heart disease? History</t>
   </si>
   <si>
+    <t>2020, heart disease with low BP</t>
+  </si>
+  <si>
     <t>Any kidney disease? When?</t>
   </si>
   <si>
@@ -599,6 +638,9 @@
     <t>Any kidney disease? History</t>
   </si>
   <si>
+    <t>i was hospitalized with kidney stone</t>
+  </si>
+  <si>
     <t>Any Cancer History? When?</t>
   </si>
   <si>
@@ -617,7 +659,7 @@
     <t>Medicine Name</t>
   </si>
   <si>
-    <t>Dolo</t>
+    <t>Asprin</t>
   </si>
   <si>
     <t>Dosage</t>
@@ -629,7 +671,7 @@
     <t>Name of the Insurance carrier</t>
   </si>
   <si>
-    <t>ICICI Prudential</t>
+    <t>Life insurance corporation of india</t>
   </si>
   <si>
     <t>Policy Number</t>
@@ -641,7 +683,7 @@
     <t>Insurance Email address</t>
   </si>
   <si>
-    <t>karthik@gmail.com</t>
+    <t>kabil@gmail.com</t>
   </si>
   <si>
     <t>Copy of policy</t>
@@ -656,7 +698,7 @@
     <t>Insurance Address</t>
   </si>
   <si>
-    <t>linken.sahel@foundtoo.com</t>
+    <t>Madhurai</t>
   </si>
 </sst>
 </file>
@@ -664,12 +706,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,17 +729,21 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF202124"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.05"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -728,46 +774,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -783,10 +791,56 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,16 +852,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,14 +875,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,7 +911,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +959,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,73 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,85 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,6 +1157,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1114,26 +1186,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,15 +1220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1200,20 +1243,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,134 +1277,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,11 +1432,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1393,9 +1444,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,10 +1462,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1735,39 +1792,39 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5454545454545" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="43.9090909090909" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="44.5454545454545" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="44.4545454545455" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="48.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="44.3636363636364" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="41.0909090909091" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="44.1818181818182" collapsed="false"/>
+    <col min="1" max="1" width="22.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="43.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="44.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="44.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="48" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="41.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="44.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7"/>
@@ -1781,7 +1838,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="7"/>
@@ -1795,7 +1852,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7"/>
@@ -1830,7 +1887,7 @@
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -1873,7 +1930,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>23</v>
@@ -1882,10 +1939,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -1894,7 +1951,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1918,7 +1975,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="8">
-        <v>9878576500</v>
+        <v>9876543210</v>
       </c>
       <c r="C10" s="8">
         <v>8867583456</v>
@@ -1941,7 +1998,7 @@
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1989,32 +2046,32 @@
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>44</v>
+      <c r="G13" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>49</v>
@@ -2023,10 +2080,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>50</v>
@@ -2035,31 +2092,31 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="12">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11">
         <v>37048</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>36069</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>31263</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>37166</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>36956</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>31263</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8">
         <v>87865645432</v>
@@ -2083,55 +2140,55 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B19" s="8">
         <v>8796754653</v>
@@ -2155,151 +2212,151 @@
     </row>
     <row r="20" ht="43.5" spans="1:8">
       <c r="A20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>44</v>
+      <c r="G20" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="8">
         <v>657846</v>
@@ -2323,85 +2380,85 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" ht="319" spans="1:8">
       <c r="A28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="C28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D30" s="8">
         <v>2016</v>
@@ -2419,13 +2476,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D31" s="8">
         <v>7685943654</v>
@@ -2443,61 +2500,61 @@
     </row>
     <row r="32" ht="43.5" spans="1:8">
       <c r="A32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>44</v>
+      <c r="G32" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D34" s="8">
         <v>8965434567</v>
@@ -2506,7 +2563,7 @@
         <v>8965434767</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G34" s="8">
         <v>8965434167</v>
@@ -2515,241 +2572,241 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>89</v>
+        <v>108</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>89</v>
+        <v>110</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>89</v>
+        <v>111</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>89</v>
+        <v>112</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="8">
         <v>9878675473</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>89</v>
+      <c r="G39" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>89</v>
+        <v>113</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>89</v>
+        <v>115</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F41" s="8">
         <v>8796754364</v>
       </c>
-      <c r="G41" s="20" t="s">
-        <v>89</v>
+      <c r="G41" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>89</v>
+        <v>117</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>89</v>
+        <v>118</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>89</v>
+        <v>119</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -2759,14 +2816,9 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId9" display="Welldercare@1"/>
-    <hyperlink ref="B3" r:id="rId10" display="prakash.dhanapalan@mavens-i.com"/>
-    <hyperlink ref="B2" r:id="rId11" display="http://65.108.222.73/#/en/login" tooltip="http://65.108.222.73/#/en/login"/>
-    <hyperlink ref="B9" r:id="rId12" display="emarion.shravan@foundtoo.com" tooltip="mailto:sanjay@channelpartner.com"/>
-    <hyperlink ref="D35" r:id="rId13" display="karthik@mail.com"/>
-    <hyperlink ref="E35" r:id="rId14" display="hema@mail.com"/>
-    <hyperlink ref="F40" r:id="rId15" display="jeeva@mail.com"/>
-    <hyperlink ref="G35" r:id="rId16" display="maaran@mail.com" tooltip="mailto:maaran@mail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="Welldercare@1"/>
+    <hyperlink ref="B3" r:id="rId2" display="prakash.dhanapalan@mavens-i.com"/>
+    <hyperlink ref="B2" r:id="rId3" display="http://65.108.222.73/#/en/login" tooltip="http://65.108.222.73/#/en/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2778,23 +2830,23 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.0909090909091" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="44.6363636363636" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="26.4545454545455" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="44.2727272727273" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="17.3636363636364" collapsed="false"/>
+    <col min="1" max="1" width="36.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="44.6363636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="44.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17.3636363636364" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
@@ -2804,26 +2856,26 @@
     </row>
     <row r="2" ht="15.5" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" ht="15.5" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
@@ -2832,7 +2884,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>23</v>
@@ -2844,10 +2896,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2856,10 +2908,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B6" s="8">
-        <v>9989000011</v>
+        <v>9989545436</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2868,10 +2920,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2880,10 +2932,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2892,10 +2944,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2904,10 +2956,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2916,10 +2968,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2928,10 +2980,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B12" s="8">
-        <v>654783</v>
+        <v>675342</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2940,22 +2992,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" ht="15.5" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2964,10 +3016,10 @@
     </row>
     <row r="15" ht="15.5" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2976,7 +3028,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>23</v>
@@ -2988,10 +3040,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3000,10 +3052,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3012,10 +3064,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B19" s="8">
-        <v>9989000012</v>
+        <v>9989987643</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3024,10 +3076,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3036,10 +3088,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3048,7 +3100,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3058,61 +3110,61 @@
     </row>
     <row r="23" ht="43.5" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="12">
+        <v>52</v>
+      </c>
+      <c r="B25" s="11">
         <v>29498</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="8">
         <v>8796543233</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="8">
         <v>8790660086</v>
@@ -3122,31 +3174,31 @@
     </row>
     <row r="27" ht="43.5" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>152</v>
+        <v>62</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="8">
         <v>8790660586</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="12">
+        <v>52</v>
+      </c>
+      <c r="D28" s="11">
         <v>29498</v>
       </c>
       <c r="E28" s="7"/>
@@ -3154,13 +3206,13 @@
     </row>
     <row r="29" ht="43.5" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>152</v>
+        <v>62</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D29" s="1">
         <v>9878675843</v>
@@ -3170,13 +3222,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B30" s="8">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D30" s="8">
         <v>678564</v>
@@ -3186,13 +3238,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B31" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" s="8">
         <v>9674563452</v>
@@ -3202,61 +3254,61 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B33" s="8">
         <v>36.8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B34" s="8">
         <v>78</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -3264,13 +3316,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B36" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="7"/>
@@ -3278,13 +3330,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B37" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -3292,10 +3344,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B38" s="8">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -3304,10 +3356,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B39" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -3316,10 +3368,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B40" s="8">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3328,10 +3380,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3340,7 +3392,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B42" s="8">
         <v>2016</v>
@@ -3352,7 +3404,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B43" s="8">
         <v>2020</v>
@@ -3362,12 +3414,12 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" ht="29" spans="1:6">
       <c r="A44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -3376,7 +3428,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B45" s="8">
         <v>2018</v>
@@ -3388,10 +3440,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -3400,10 +3452,10 @@
     </row>
     <row r="47" ht="43.5" spans="1:6">
       <c r="A47" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>152</v>
+        <v>191</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3412,10 +3464,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3424,7 +3476,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B49" s="8">
         <v>2020</v>
@@ -3436,10 +3488,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -3448,10 +3500,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3460,7 +3512,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B52" s="8">
         <v>2013</v>
@@ -3472,10 +3524,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3484,10 +3536,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -3496,7 +3548,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B55" s="8">
         <v>2018</v>
@@ -3508,10 +3560,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -3520,10 +3572,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3532,10 +3584,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3544,10 +3596,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -3556,10 +3608,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B60" s="8">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -3568,7 +3620,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B61" s="8">
         <v>2022</v>
@@ -3580,10 +3632,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -3592,7 +3644,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B63" s="8">
         <v>8765784145</v>
@@ -3604,7 +3656,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B64" s="8">
         <v>60000000</v>
@@ -3616,10 +3668,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3628,10 +3680,10 @@
     </row>
     <row r="66" ht="43.5" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>152</v>
+        <v>217</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -3640,9 +3692,9 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="12">
+        <v>218</v>
+      </c>
+      <c r="B67" s="11">
         <v>47636</v>
       </c>
       <c r="C67" s="7"/>
@@ -3652,10 +3704,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B68" s="8">
-        <v>8796543234</v>
+        <v>8767543543</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -3664,10 +3716,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -3680,7 +3732,7 @@
     <mergeCell ref="A22:F22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B65" r:id="rId2" display="karthik@gmail.com"/>
+    <hyperlink ref="B65" r:id="rId1" display="kabil@gmail.com" tooltip="mailto:kabil@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel Files/Files.xlsx
+++ b/Excel Files/Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="6920" activeTab="1"/>
+    <workbookView windowWidth="17930" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Login&amp;Usercreation" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="222">
   <si>
     <t>Login page</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>India</t>
   </si>
   <si>
     <t>State</t>
@@ -443,6 +440,9 @@
     <t>Veteran Country</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>Veteran State/Region</t>
   </si>
   <si>
@@ -706,10 +706,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -761,48 +761,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,6 +790,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -829,9 +805,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,43 +875,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,6 +884,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,19 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +923,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,18 +959,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -983,7 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,13 +983,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,85 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,24 +1157,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1190,6 +1172,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1201,6 +1192,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,15 +1246,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1259,148 +1259,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,8 +1792,8 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2286,77 +2286,65 @@
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="8">
         <v>657846</v>
@@ -2380,85 +2368,85 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" ht="319" spans="1:8">
       <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8">
         <v>2016</v>
@@ -2476,13 +2464,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8">
         <v>7685943654</v>
@@ -2500,13 +2488,13 @@
     </row>
     <row r="32" ht="43.5" spans="1:8">
       <c r="A32" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>44</v>
@@ -2524,37 +2512,37 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
         <v>100</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" t="s">
-        <v>101</v>
       </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="8">
         <v>8965434567</v>
@@ -2563,7 +2551,7 @@
         <v>8965434767</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="8">
         <v>8965434167</v>
@@ -2572,37 +2560,37 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="E35" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="F35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>72</v>
@@ -2611,7 +2599,7 @@
         <v>72</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>72</v>
@@ -2620,193 +2608,193 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="F37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="G38" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="8">
         <v>9878675473</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>114</v>
-      </c>
       <c r="G40" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="8">
         <v>8796754364</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G42" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="G43" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -2830,8 +2818,8 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2846,7 +2834,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
@@ -2856,26 +2844,26 @@
     </row>
     <row r="2" ht="15.5" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" ht="15.5" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
@@ -2884,7 +2872,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>23</v>
@@ -2896,10 +2884,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2908,7 +2896,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="8">
         <v>9989545436</v>
@@ -2920,10 +2908,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2932,7 +2920,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>72</v>
@@ -2944,10 +2932,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2959,7 +2947,7 @@
         <v>136</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2971,7 +2959,7 @@
         <v>137</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2995,7 +2983,7 @@
         <v>139</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>

--- a/Excel Files/Files.xlsx
+++ b/Excel Files/Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="6920"/>
+    <workbookView windowWidth="17930" windowHeight="6920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login&amp;Usercreation" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
   <si>
     <t>Login page</t>
   </si>
@@ -416,6 +416,12 @@
     <t>Sharma</t>
   </si>
   <si>
+    <t>Veteran Full name</t>
+  </si>
+  <si>
+    <t>Jeeva Balin</t>
+  </si>
+  <si>
     <t>Veteran Gender</t>
   </si>
   <si>
@@ -705,11 +711,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -760,8 +767,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,39 +790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -821,23 +806,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,29 +845,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,16 +861,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -911,7 +918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,13 +966,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,25 +990,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,109 +1080,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,6 +1164,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1168,15 +1234,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,74 +1261,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,127 +1287,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,7 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1792,8 +1799,8 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2818,8 +2825,8 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2865,14 +2872,18 @@
       <c r="B3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>23</v>
@@ -2884,10 +2895,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2896,7 +2907,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" s="8">
         <v>9989545436</v>
@@ -2908,10 +2919,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2920,7 +2931,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>72</v>
@@ -2932,10 +2943,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2944,7 +2955,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>76</v>
@@ -2956,7 +2967,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>78</v>
@@ -2968,7 +2979,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12" s="8">
         <v>675342</v>
@@ -2980,7 +2991,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>81</v>
@@ -2992,10 +3003,10 @@
     </row>
     <row r="14" ht="15.5" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3004,10 +3015,10 @@
     </row>
     <row r="15" ht="15.5" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3016,7 +3027,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>23</v>
@@ -3028,10 +3039,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3040,10 +3051,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3052,7 +3063,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B19" s="8">
         <v>9989987643</v>
@@ -3064,10 +3075,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3076,10 +3087,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3088,7 +3099,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3098,16 +3109,16 @@
     </row>
     <row r="23" ht="43.5" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -3171,7 +3182,7 @@
         <v>62</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -3197,10 +3208,10 @@
         <v>62</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D29" s="1">
         <v>9878675843</v>
@@ -3210,13 +3221,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B30" s="8">
         <v>163</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D30" s="8">
         <v>678564</v>
@@ -3226,7 +3237,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B31" s="8">
         <v>57</v>
@@ -3242,61 +3253,61 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B33" s="8">
         <v>36.8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B34" s="8">
         <v>78</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -3304,13 +3315,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B36" s="8">
         <v>122</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="7"/>
@@ -3318,13 +3329,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B37" s="8">
         <v>134</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -3332,7 +3343,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B38" s="8">
         <v>68</v>
@@ -3344,7 +3355,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B39" s="8">
         <v>72</v>
@@ -3356,7 +3367,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B40" s="8">
         <v>73</v>
@@ -3368,10 +3379,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3380,7 +3391,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B42" s="8">
         <v>2016</v>
@@ -3392,7 +3403,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B43" s="8">
         <v>2020</v>
@@ -3404,10 +3415,10 @@
     </row>
     <row r="44" ht="29" spans="1:6">
       <c r="A44" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -3416,7 +3427,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B45" s="8">
         <v>2018</v>
@@ -3428,7 +3439,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>72</v>
@@ -3440,10 +3451,10 @@
     </row>
     <row r="47" ht="43.5" spans="1:6">
       <c r="A47" s="14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3452,10 +3463,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3464,7 +3475,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B49" s="8">
         <v>2020</v>
@@ -3476,7 +3487,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>72</v>
@@ -3488,10 +3499,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3500,7 +3511,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B52" s="8">
         <v>2013</v>
@@ -3512,7 +3523,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>72</v>
@@ -3524,10 +3535,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -3536,7 +3547,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B55" s="8">
         <v>2018</v>
@@ -3548,7 +3559,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>72</v>
@@ -3560,10 +3571,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3572,10 +3583,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3584,10 +3595,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -3596,7 +3607,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B60" s="8">
         <v>250</v>
@@ -3608,7 +3619,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B61" s="8">
         <v>2022</v>
@@ -3620,10 +3631,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -3632,7 +3643,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B63" s="8">
         <v>8765784145</v>
@@ -3644,7 +3655,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B64" s="8">
         <v>60000000</v>
@@ -3656,10 +3667,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3668,10 +3679,10 @@
     </row>
     <row r="66" ht="43.5" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -3680,7 +3691,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B67" s="11">
         <v>47636</v>
@@ -3692,7 +3703,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B68" s="8">
         <v>8767543543</v>
@@ -3704,10 +3715,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>

--- a/Excel Files/Files.xlsx
+++ b/Excel Files/Files.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="246">
   <si>
     <t>Login page</t>
   </si>
@@ -95,27 +95,45 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>whalen.kieon@foundtoo.com</t>
-  </si>
-  <si>
-    <t>jaylin.chengyu@foundtoo.com</t>
-  </si>
-  <si>
-    <t>legolas.cordero@foundtoo.com</t>
-  </si>
-  <si>
-    <t>camari.lisandro@foundtoo.com</t>
-  </si>
-  <si>
-    <t>jaidin.zorawar@foundtoo.com</t>
-  </si>
-  <si>
-    <t>trinity.colt@foundtoo.com</t>
+    <t>aryo.ollis@fullangle.org</t>
+  </si>
+  <si>
+    <t>ilhan.demari@fullangle.org</t>
+  </si>
+  <si>
+    <t>sulayman.rowdy@fullangle.org</t>
+  </si>
+  <si>
+    <t>jahkari.yovanny@fullangle.org</t>
+  </si>
+  <si>
+    <t>ajay.poseidon@fullangle.org</t>
+  </si>
+  <si>
+    <t>tyrese.motty@fullangle.org</t>
   </si>
   <si>
     <t>Phone number</t>
   </si>
   <si>
+    <t>8976564382</t>
+  </si>
+  <si>
+    <t>8976564383</t>
+  </si>
+  <si>
+    <t>8976564384</t>
+  </si>
+  <si>
+    <t>8976564385</t>
+  </si>
+  <si>
+    <t>8976564386</t>
+  </si>
+  <si>
+    <t>8976564387</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
@@ -140,25 +158,28 @@
     <t>Emarson5020@</t>
   </si>
   <si>
+    <t>Welldercare@3</t>
+  </si>
+  <si>
     <t>Profile picture</t>
   </si>
   <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image23.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image24.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image20.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image22.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image29.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image21.jpg</t>
+    <t>D:\Project\Welldercare_Automation\Lib\Images\\image15.jpg</t>
+  </si>
+  <si>
+    <t>D:\Project\Welldercare_Automation\Lib\Images\\image14.jpg</t>
+  </si>
+  <si>
+    <t>D:\Project\Welldercare_Automation\Lib\Images\\image8.jpg</t>
+  </si>
+  <si>
+    <t>D:\Project\Welldercare_Automation\Lib\Images\\image9.jpg</t>
+  </si>
+  <si>
+    <t>D:\Project\Welldercare_Automation\Lib\Images\\image10.jpg</t>
+  </si>
+  <si>
+    <t>D:\Project\Welldercare_Automation\Lib\Images\\image12.jpg</t>
   </si>
   <si>
     <t>Title</t>
@@ -179,19 +200,37 @@
     <t>Alternate Contact Number</t>
   </si>
   <si>
+    <t>78745323480</t>
+  </si>
+  <si>
+    <t>78745323481</t>
+  </si>
+  <si>
+    <t>78745323482</t>
+  </si>
+  <si>
+    <t>78745323483</t>
+  </si>
+  <si>
+    <t>78745323484</t>
+  </si>
+  <si>
+    <t>78745323485</t>
+  </si>
+  <si>
     <t>Degree</t>
   </si>
   <si>
-    <t>MSD</t>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>DDS</t>
   </si>
   <si>
     <t>DPT</t>
   </si>
   <si>
-    <t>RDH</t>
-  </si>
-  <si>
-    <t>DPM</t>
+    <t>DMD</t>
   </si>
   <si>
     <t>Govt.Id Type</t>
@@ -203,6 +242,24 @@
     <t>Govt.Id Number</t>
   </si>
   <si>
+    <t>876593543640</t>
+  </si>
+  <si>
+    <t>876593543641</t>
+  </si>
+  <si>
+    <t>876593543642</t>
+  </si>
+  <si>
+    <t>876593543643</t>
+  </si>
+  <si>
+    <t>876593543644</t>
+  </si>
+  <si>
+    <t>876593543645</t>
+  </si>
+  <si>
     <t>Upload Id proof</t>
   </si>
   <si>
@@ -242,25 +299,31 @@
     <t>Country</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
-    <t>Delhi</t>
+    <t>Tamilnadu</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>East Delhi</t>
+    <t>Madurai</t>
   </si>
   <si>
     <t>Pin code</t>
   </si>
   <si>
+    <t>656453</t>
+  </si>
+  <si>
     <t>Territory</t>
   </si>
   <si>
-    <t>Gandhi Nagar</t>
+    <t>Thirumangalam</t>
   </si>
   <si>
     <t>About Yourself</t>
@@ -308,12 +371,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Dental cleaning</t>
-  </si>
-  <si>
     <t>Dermatologist</t>
   </si>
   <si>
+    <t>Audiologist</t>
+  </si>
+  <si>
     <t>Acupuncturist</t>
   </si>
   <si>
@@ -407,7 +470,7 @@
     <t>Assigned Doctor Names</t>
   </si>
   <si>
-    <t>Karthik N</t>
+    <t>Ravindra Jadeja</t>
   </si>
   <si>
     <t>Veteran Last Name</t>
@@ -419,7 +482,7 @@
     <t>Veteran Full name</t>
   </si>
   <si>
-    <t>Jeeva Balin</t>
+    <t>Rohit Sharma</t>
   </si>
   <si>
     <t>Veteran Gender</t>
@@ -434,6 +497,9 @@
     <t>Veteran Contact Number</t>
   </si>
   <si>
+    <t>8976564380</t>
+  </si>
+  <si>
     <t>Veteran Address Line 1</t>
   </si>
   <si>
@@ -446,9 +512,6 @@
     <t>Veteran Country</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>Veteran State/Region</t>
   </si>
   <si>
@@ -491,6 +554,9 @@
     <t>Family Member Contact Number</t>
   </si>
   <si>
+    <t>8976564381</t>
+  </si>
+  <si>
     <t>Family Member Relationship</t>
   </si>
   <si>
@@ -509,13 +575,13 @@
     <t>Veteran Profile photo</t>
   </si>
   <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image1.jpg</t>
+    <t>D:\Project\Welldercare_Automation\Lib\Images\\image5.jpg</t>
   </si>
   <si>
     <t>Family member Profile photo</t>
   </si>
   <si>
-    <t>C:\\Users\\Emarson\\OneDrive - MAVENS I SOFTECH SOLUTIONS PRIVATE LIMITED\\Desktop\\images\\image2.jpg</t>
+    <t>D:\Project\Welldercare_Automation\Lib\Images\\image1.jpg</t>
   </si>
   <si>
     <t>Respective Police Station</t>
@@ -712,11 +778,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -767,11 +833,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,8 +871,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,46 +939,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,50 +968,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -918,7 +984,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +1116,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,163 +1158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,11 +1245,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,6 +1265,39 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,192 +1327,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1433,26 +1499,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1799,8 +1865,8 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1834,12 +1900,12 @@
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
@@ -1848,12 +1914,12 @@
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -1862,12 +1928,12 @@
       <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
@@ -1885,73 +1951,73 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -1975,835 +2041,847 @@
       <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8">
-        <v>9876543210</v>
-      </c>
-      <c r="C10" s="8">
-        <v>8867583456</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8845673423</v>
-      </c>
-      <c r="E10" s="8">
-        <v>9123488758</v>
-      </c>
-      <c r="F10" s="8">
-        <v>6995886786</v>
-      </c>
-      <c r="G10" s="8">
-        <v>9845003423</v>
-      </c>
-      <c r="H10" s="7"/>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" ht="43.5" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="11">
+        <v>59</v>
+      </c>
+      <c r="B15" s="10">
         <v>37048</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>36069</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>31263</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>37166</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>36956</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>31263</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="8">
-        <v>87865645432</v>
-      </c>
-      <c r="C16" s="8">
-        <v>8768943245</v>
-      </c>
-      <c r="D16" s="8">
-        <v>8768943249</v>
-      </c>
-      <c r="E16" s="8">
-        <v>9878756473</v>
-      </c>
-      <c r="F16" s="8">
-        <v>8787567453</v>
-      </c>
-      <c r="G16" s="8">
-        <v>8768943249</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="8">
-        <v>8796754653</v>
-      </c>
-      <c r="C19" s="8">
-        <v>8796754658</v>
-      </c>
-      <c r="D19" s="8">
-        <v>8796754656</v>
-      </c>
-      <c r="E19" s="8">
-        <v>8796754655</v>
-      </c>
-      <c r="F19" s="8">
-        <v>8796754650</v>
-      </c>
-      <c r="G19" s="8">
-        <v>8796754656</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" ht="43.5" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="8">
-        <v>657846</v>
-      </c>
-      <c r="C26" s="8">
-        <v>657846</v>
-      </c>
-      <c r="D26" s="8">
-        <v>657846</v>
-      </c>
-      <c r="E26" s="8">
-        <v>657846</v>
-      </c>
-      <c r="F26" s="8">
-        <v>657846</v>
-      </c>
-      <c r="G26" s="8">
-        <v>657846</v>
-      </c>
-      <c r="H26" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" ht="319" spans="1:8">
       <c r="A28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="8">
+        <v>111</v>
+      </c>
+      <c r="D30" s="7">
         <v>2016</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>2017</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>2013</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>2016</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="8">
+        <v>111</v>
+      </c>
+      <c r="D31" s="7">
         <v>7685943654</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>7685943659</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>7685943059</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>7685943654</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" ht="43.5" spans="1:8">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="5" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" s="7">
         <v>8965434567</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>8965434767</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="7">
         <v>8965434167</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="8">
+        <v>111</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="7">
         <v>9878675473</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="8">
+        <v>111</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="7">
         <v>8796754364</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>72</v>
+        <v>111</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2826,7 +2904,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2841,7 +2919,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="3"/>
@@ -2851,255 +2929,255 @@
     </row>
     <row r="2" ht="15.5" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" ht="15.5" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="8">
-        <v>9989545436</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="8">
-        <v>675342</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="15.5" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+        <v>164</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="15.5" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="8">
-        <v>9989987643</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3107,623 +3185,623 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" ht="43.5" spans="1:6">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>158</v>
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="11">
+        <v>59</v>
+      </c>
+      <c r="B25" s="10">
         <v>29498</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="8">
+        <v>60</v>
+      </c>
+      <c r="B26" s="7">
         <v>8796543233</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="8">
+        <v>74</v>
+      </c>
+      <c r="D26" s="7">
         <v>8790660086</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" ht="43.5" spans="1:6">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="8">
+        <v>74</v>
+      </c>
+      <c r="B28" s="7">
         <v>8790660586</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="11">
+        <v>59</v>
+      </c>
+      <c r="D28" s="10">
         <v>29498</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" ht="43.5" spans="1:6">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>158</v>
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D29" s="1">
         <v>9878675843</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="8">
+        <v>184</v>
+      </c>
+      <c r="B30" s="7">
         <v>163</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="8">
+        <v>185</v>
+      </c>
+      <c r="D30" s="7">
         <v>678564</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="8">
+        <v>186</v>
+      </c>
+      <c r="B31" s="7">
         <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="8">
+        <v>60</v>
+      </c>
+      <c r="D31" s="7">
         <v>9674563452</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="8">
+        <v>191</v>
+      </c>
+      <c r="B33" s="7">
         <v>36.8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="8">
+        <v>194</v>
+      </c>
+      <c r="B34" s="7">
         <v>78</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>176</v>
+        <v>197</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="8">
+        <v>200</v>
+      </c>
+      <c r="B36" s="7">
         <v>122</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="8">
+        <v>202</v>
+      </c>
+      <c r="B37" s="7">
         <v>134</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" s="8">
+        <v>204</v>
+      </c>
+      <c r="B38" s="7">
         <v>68</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="8">
+        <v>205</v>
+      </c>
+      <c r="B39" s="7">
         <v>72</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" s="8">
+        <v>206</v>
+      </c>
+      <c r="B40" s="7">
         <v>73</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="8">
+        <v>209</v>
+      </c>
+      <c r="B42" s="7">
         <v>2016</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="8">
+        <v>210</v>
+      </c>
+      <c r="B43" s="7">
         <v>2020</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" ht="29" spans="1:6">
       <c r="A44" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="8">
+        <v>213</v>
+      </c>
+      <c r="B45" s="7">
         <v>2018</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" ht="43.5" spans="1:6">
+        <v>214</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" ht="29" spans="1:6">
       <c r="A47" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+        <v>216</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" s="8">
+        <v>218</v>
+      </c>
+      <c r="B49" s="7">
         <v>2020</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B52" s="8">
+        <v>222</v>
+      </c>
+      <c r="B52" s="7">
         <v>2013</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B55" s="8">
+        <v>226</v>
+      </c>
+      <c r="B55" s="7">
         <v>2018</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+        <v>229</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B60" s="8">
+        <v>233</v>
+      </c>
+      <c r="B60" s="7">
         <v>250</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" s="8">
+        <v>234</v>
+      </c>
+      <c r="B61" s="7">
         <v>2022</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="8">
+        <v>237</v>
+      </c>
+      <c r="B63" s="7">
         <v>8765784145</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="8">
+        <v>238</v>
+      </c>
+      <c r="B64" s="7">
         <v>60000000</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" ht="43.5" spans="1:6">
+        <v>240</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B67" s="11">
+        <v>242</v>
+      </c>
+      <c r="B67" s="10">
         <v>47636</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B68" s="8">
+        <v>243</v>
+      </c>
+      <c r="B68" s="7">
         <v>8767543543</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel Files/Files.xlsx
+++ b/Excel Files/Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login&amp;Usercreation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="259">
   <si>
     <t>Login page</t>
   </si>
@@ -468,7 +468,7 @@
     <t>Assigned Doctor Names</t>
   </si>
   <si>
-    <t>Dipa Karmakar</t>
+    <t>Dipa  Karmakar</t>
   </si>
   <si>
     <t>Veteran Last Name</t>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Veteran Gender</t>
+  </si>
+  <si>
+    <t>Batch number</t>
+  </si>
+  <si>
+    <t>1002</t>
   </si>
   <si>
     <t>Veteran Email address</t>
@@ -812,10 +818,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="25">
@@ -868,6 +874,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -875,24 +888,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,7 +903,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,22 +933,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -974,6 +956,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -982,8 +987,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,7 +1003,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,19 +1030,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1078,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,55 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,19 +1198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,49 +1210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,11 +1276,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,8 +1294,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,11 +1341,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,17 +1363,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,7 +1378,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1381,143 +1393,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1542,9 +1548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,9 +1560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1584,9 +1584,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1603,6 +1600,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1926,93 +1926,93 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="43.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="44.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="44.4545454545455" customWidth="1"/>
-    <col min="5" max="5" width="48" style="7" customWidth="1"/>
-    <col min="6" max="6" width="44.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="41.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="44.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="22.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -2021,7 +2021,7 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
@@ -2030,61 +2030,61 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
@@ -2102,10 +2102,10 @@
       <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -2126,58 +2126,58 @@
       <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
@@ -2198,58 +2198,58 @@
       <c r="G13" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>37048</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>36069</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>31263</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>37166</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>36956</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>31263</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B16" t="s">
@@ -2270,58 +2270,58 @@
       <c r="G16" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
@@ -2342,10 +2342,10 @@
       <c r="G19" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B20" t="s">
@@ -2366,58 +2366,58 @@
       <c r="G20" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B23" t="s">
@@ -2438,10 +2438,10 @@
       <c r="G23" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B24" t="s">
@@ -2462,10 +2462,10 @@
       <c r="G24" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B25" t="s">
@@ -2486,10 +2486,10 @@
       <c r="G25" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B26" t="s">
@@ -2510,10 +2510,10 @@
       <c r="G26" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B27" t="s">
@@ -2534,112 +2534,112 @@
       <c r="G27" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" ht="319" spans="1:8">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="B29" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="F29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="15">
+      <c r="B30" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="13">
         <v>2016</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="13">
         <v>2017</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <v>2013</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <v>2016</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="15">
+      <c r="B31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="13">
         <v>7685943654</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="13">
         <v>7685943659</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <v>7685943059</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <v>7685943654</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>110</v>
       </c>
       <c r="D32" t="s">
@@ -2654,295 +2654,295 @@
       <c r="G32" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>110</v>
       </c>
       <c r="D33" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G33" t="s">
         <v>120</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="15">
+      <c r="B34" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="13">
         <v>8965434567</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="13">
         <v>8965434767</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="15">
+      <c r="F34" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="13">
         <v>8965434167</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="26" t="s">
+      <c r="B35" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="26" t="s">
+      <c r="F35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="B36" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="13" t="s">
+      <c r="F36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="15" t="s">
+      <c r="B37" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="13" t="s">
+      <c r="B38" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" s="13"/>
+      <c r="G38" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="15">
+      <c r="B39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="13">
         <v>9878675473</v>
       </c>
-      <c r="G39" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="13"/>
+      <c r="G39" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="26" t="s">
+      <c r="B40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="13"/>
+      <c r="G40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="15">
+      <c r="B41" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="13">
         <v>8796754364</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="13"/>
+      <c r="G41" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="B42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" s="13"/>
+      <c r="G42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="13" t="s">
+      <c r="B43" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="13"/>
+      <c r="G43" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="B44" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="13"/>
+      <c r="G44" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2964,8 +2964,8 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2975,903 +2975,904 @@
     <col min="3" max="3" width="26.4545454545455" customWidth="1"/>
     <col min="4" max="4" width="44.2727272727273" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.3636363636364" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.3636363636364" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="15.5" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>152</v>
+      <c r="A6" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
-        <v>157</v>
+      <c r="A9" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="B9" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
-        <v>158</v>
+      <c r="A10" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11" t="s">
-        <v>159</v>
+      <c r="A11" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11" t="s">
-        <v>160</v>
+      <c r="A12" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
-        <v>161</v>
+      <c r="A13" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="B13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
-        <v>162</v>
+      <c r="A14" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+        <v>165</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" ht="15.5" spans="1:6">
-      <c r="A15" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11" t="s">
-        <v>171</v>
+      <c r="A19" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+        <v>174</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11" t="s">
-        <v>178</v>
+      <c r="A23" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>29498</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <v>8796543233</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <v>8790660086</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="13">
         <v>8790660586</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <v>29498</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>182</v>
+      <c r="C29" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="D29" s="7">
         <v>9878675843</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="15">
+      <c r="A30" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="13">
         <v>163</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="15">
+      <c r="C30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="13">
         <v>678564</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="15">
+      <c r="A31" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="13">
         <v>57</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>9674563452</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="18" t="s">
+      <c r="A32" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="C32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" s="15">
+      <c r="A33" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="13">
         <v>36.8</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="C33" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="15">
+      <c r="A34" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="13">
         <v>78</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="C34" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="B35" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B36" s="15">
+      <c r="A36" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="13">
         <v>122</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="C36" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="15">
+      <c r="A37" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="13">
         <v>134</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="C37" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="15">
+      <c r="A38" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="13">
         <v>68</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="15">
+      <c r="A39" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="13">
         <v>72</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="15">
+      <c r="A40" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="13">
         <v>73</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="A41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="15">
+      <c r="A42" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="13">
         <v>2016</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B43" s="15">
+      <c r="A43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="13">
         <v>2020</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" ht="29" spans="1:6">
-      <c r="A44" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="A44" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B45" s="15">
+      <c r="A45" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="13">
         <v>2018</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" ht="29" spans="1:6">
-      <c r="A47" s="21" t="s">
-        <v>214</v>
+      <c r="A47" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+      <c r="A48" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="15">
+      <c r="A49" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="13">
         <v>2020</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="13">
+        <v>2013</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B52" s="15">
-        <v>2013</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B55" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="A58" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="A59" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B60" s="15">
+      <c r="A60" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="13">
         <v>250</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B61" s="15">
+      <c r="A61" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="13">
         <v>2022</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+      <c r="A62" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="15">
+      <c r="A63" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="13">
         <v>8765784145</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B64" s="15">
+      <c r="A64" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="13">
         <v>60000000</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
+      <c r="A65" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="11" t="s">
-        <v>240</v>
+      <c r="A66" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="17">
+      <c r="A67" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="15">
         <v>47636</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B68" s="15">
+      <c r="A68" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="13">
         <v>8767543543</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="A69" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A22:F22"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B65" r:id="rId1" display="kabil@gmail.com" tooltip="mailto:kabil@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3882,22 +3883,22 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="32.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="15.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3905,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3913,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3921,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3929,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3937,7 +3938,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3945,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3953,7 +3954,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3961,7 +3962,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3969,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3977,7 +3978,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Excel Files/Files.xlsx
+++ b/Excel Files/Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Login&amp;Usercreation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="258">
   <si>
     <t>Login page</t>
   </si>
@@ -96,13 +96,13 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>tillman.adis@fullangle.org</t>
-  </si>
-  <si>
-    <t>amory.raymundo@fullangle.org</t>
-  </si>
-  <si>
-    <t>jaber.obadiah@fullangle.org</t>
+    <t>crowley.nicholi@fullangle.org</t>
+  </si>
+  <si>
+    <t>ajeet.jaymian@fullangle.org</t>
+  </si>
+  <si>
+    <t>georgiy.ilian@fullangle.org</t>
   </si>
   <si>
     <t>sahibjot.mahdi@fullangle.org</t>
@@ -117,22 +117,19 @@
     <t>Phone number</t>
   </si>
   <si>
-    <t>8976564582</t>
-  </si>
-  <si>
-    <t>8976564583</t>
-  </si>
-  <si>
-    <t>8976564584</t>
-  </si>
-  <si>
-    <t>8976564585</t>
-  </si>
-  <si>
-    <t>8976564586</t>
-  </si>
-  <si>
-    <t>8976564587</t>
+    <t>8976564182</t>
+  </si>
+  <si>
+    <t>8976564183</t>
+  </si>
+  <si>
+    <t>8976564185</t>
+  </si>
+  <si>
+    <t>8976564186</t>
+  </si>
+  <si>
+    <t>8976564187</t>
   </si>
   <si>
     <t>Role</t>
@@ -198,22 +195,22 @@
     <t>Alternate Contact Number</t>
   </si>
   <si>
-    <t>78745323580</t>
-  </si>
-  <si>
-    <t>78745323581</t>
-  </si>
-  <si>
-    <t>78745323582</t>
-  </si>
-  <si>
-    <t>78745323583</t>
-  </si>
-  <si>
-    <t>78745323584</t>
-  </si>
-  <si>
-    <t>78745323585</t>
+    <t>78745323180</t>
+  </si>
+  <si>
+    <t>78745323181</t>
+  </si>
+  <si>
+    <t>78745323182</t>
+  </si>
+  <si>
+    <t>78745323183</t>
+  </si>
+  <si>
+    <t>78745323184</t>
+  </si>
+  <si>
+    <t>78745323185</t>
   </si>
   <si>
     <t>Degree</t>
@@ -240,22 +237,22 @@
     <t>Govt.Id Number</t>
   </si>
   <si>
-    <t>876593543740</t>
-  </si>
-  <si>
-    <t>876593543741</t>
-  </si>
-  <si>
-    <t>876593543742</t>
-  </si>
-  <si>
-    <t>876593543743</t>
-  </si>
-  <si>
-    <t>876593543744</t>
-  </si>
-  <si>
-    <t>876593543745</t>
+    <t>876593543140</t>
+  </si>
+  <si>
+    <t>876593543141</t>
+  </si>
+  <si>
+    <t>876593543142</t>
+  </si>
+  <si>
+    <t>876593543143</t>
+  </si>
+  <si>
+    <t>876593543144</t>
+  </si>
+  <si>
+    <t>876593543145</t>
   </si>
   <si>
     <t>Upload Id proof</t>
@@ -501,7 +498,7 @@
     <t>Veteran Contact Number</t>
   </si>
   <si>
-    <t>8976564580</t>
+    <t>8976564180</t>
   </si>
   <si>
     <t>Veteran Address Line 1</t>
@@ -558,7 +555,7 @@
     <t>Family Member Contact Number</t>
   </si>
   <si>
-    <t>8976564581</t>
+    <t>8976564181</t>
   </si>
   <si>
     <t>Family Member Relationship</t>
@@ -818,11 +815,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -873,10 +870,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,23 +914,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,17 +931,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,7 +963,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,31 +978,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,7 +992,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,13 +1027,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,43 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,61 +1111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1141,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,31 +1171,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,8 +1291,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,15 +1308,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,6 +1353,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1378,10 +1375,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1390,140 +1390,137 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1569,7 +1566,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1595,6 +1592,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1926,20 +1926,20 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="48" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.0909090909091" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="43.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="44.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="44.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="48" style="7" customWidth="1"/>
+    <col min="6" max="6" width="44.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="41.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="44.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2084,7 +2084,7 @@
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
@@ -2114,119 +2114,119 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="24">
+        <v>8976560184</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="G14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="15">
         <v>37048</v>
@@ -2250,349 +2250,349 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>70</v>
-      </c>
       <c r="G17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>77</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="G21" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="G22" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
         <v>98</v>
       </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" ht="319" spans="1:8">
       <c r="A28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="F29" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="D30" s="13">
         <v>2016</v>
@@ -2610,13 +2610,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="D31" s="13">
         <v>7685943654</v>
@@ -2634,61 +2634,61 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="F33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" t="s">
         <v>119</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" t="s">
-        <v>120</v>
       </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>110</v>
+        <v>120</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="D34" s="13">
         <v>8965434567</v>
@@ -2697,7 +2697,7 @@
         <v>8965434767</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="13">
         <v>8965434167</v>
@@ -2706,241 +2706,241 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="E35" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="F35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>110</v>
+        <v>125</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="F37" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>110</v>
+      <c r="G38" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F39" s="13">
         <v>9878675473</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>110</v>
+      <c r="G39" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>110</v>
+      <c r="G40" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>110</v>
+        <v>133</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F41" s="13">
         <v>8796754364</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>110</v>
+      <c r="G41" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>110</v>
+      <c r="G42" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>110</v>
+      <c r="G43" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>110</v>
+        <v>138</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -2964,23 +2964,23 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="36.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="44.6363636363636" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="44.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.3636363636364" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.0909090909091" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.6363636363636" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.3636363636364" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="8"/>
@@ -2990,58 +2990,58 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="15.5" spans="1:6">
       <c r="A3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
         <v>150</v>
-      </c>
-      <c r="D4" t="s">
-        <v>151</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
         <v>154</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3074,10 +3074,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3146,10 +3146,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
         <v>164</v>
-      </c>
-      <c r="B14" t="s">
-        <v>165</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="15" ht="15.5" spans="1:6">
       <c r="A15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>23</v>
@@ -3182,10 +3182,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3194,10 +3194,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
         <v>173</v>
-      </c>
-      <c r="B19" t="s">
-        <v>174</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3252,61 +3252,61 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
         <v>180</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" t="s">
         <v>182</v>
-      </c>
-      <c r="D23" t="s">
-        <v>183</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="15">
         <v>29498</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="13">
         <v>8796543233</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="13">
         <v>8790660086</v>
@@ -3316,29 +3316,29 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="C27" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="13">
         <v>8790660586</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="15">
         <v>29498</v>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" s="7">
         <v>9878675843</v>
@@ -3364,13 +3364,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="13">
         <v>163</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="13">
         <v>678564</v>
@@ -3380,13 +3380,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="13">
         <v>57</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="13">
         <v>9674563452</v>
@@ -3396,61 +3396,61 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C32" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="13">
         <v>36.8</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="13">
         <v>78</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3458,13 +3458,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="13">
         <v>122</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="3"/>
@@ -3472,13 +3472,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="13">
         <v>134</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="13">
         <v>68</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="13">
         <v>72</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="13">
         <v>73</v>
@@ -3522,10 +3522,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="13">
         <v>2016</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" s="13">
         <v>2020</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="44" ht="29" spans="1:6">
       <c r="A44" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>213</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" s="13">
         <v>2018</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="47" ht="29" spans="1:6">
       <c r="A47" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="13">
         <v>2020</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" s="13">
         <v>2013</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -3678,10 +3678,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="13">
         <v>2018</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B60" s="13">
         <v>250</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B61" s="13">
         <v>2022</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>237</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B63" s="13">
         <v>8765784145</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B64" s="13">
         <v>60000000</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" t="s">
         <v>240</v>
-      </c>
-      <c r="B65" t="s">
-        <v>241</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B67" s="15">
         <v>47636</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B68" s="13">
         <v>8767543543</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3895,10 +3895,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2">
